--- a/reports/2025年04月/小農詳細報表/友善耕作詳細報表.xlsx
+++ b/reports/2025年04月/小農詳細報表/友善耕作詳細報表.xlsx
@@ -10,7 +10,8 @@
     <sheet name="總覽" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="進貨明細" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="銷售明細" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="庫存明細" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="退貨明細" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="庫存明細" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -493,39 +494,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>分潤比例</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
+          <t>退貨總額</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>分潤金額</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2450</v>
+          <t>分潤比例</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>分潤金額</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>庫存價值</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1900</v>
+      <c r="B9" t="n">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,74 +597,6 @@
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>收貨員工</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-04-04 14:44:37</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>塊</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>李小華</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-04 17:23:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>王小明</t>
         </is>
       </c>
     </row>
@@ -668,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,7 +672,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-04 14:43:31</t>
+          <t>2025-04-04 17:49:09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -739,65 +682,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>豬肉</t>
+          <t>煞車油</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>塊</t>
+          <t>瓶</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>王小明</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-04-04 17:23:26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>午班</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>豬肉</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>斤</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>225</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22500</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>李小華</t>
         </is>
       </c>
     </row>
@@ -812,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,6 +727,117 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>時間戳記</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>供應商</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>產品名稱</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>單價</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>處理員工</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>退貨原因</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-04-04 18:24:12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>友善耕作</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>煞車油</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>瓶</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>200</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>王小明</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>產品編號</t>
         </is>
       </c>
@@ -898,6 +913,30 @@
       </c>
       <c r="F3" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>煞車油</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>瓶</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
